--- a/数据整理/stocks/A股/科创板/688072-拓荆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688072-拓荆科技.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1523,56 +1575,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688072-拓荆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688072-拓荆科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>106</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.94</v>
       </c>
     </row>
@@ -498,6 +515,4078 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1957</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0938</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9845</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6314</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6151</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5541</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银景福回报混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015197</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票D</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015089</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银景福回报混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688072-拓荆科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688072-拓荆科技.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>26.99</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>7.94</v>
       </c>
     </row>
@@ -515,6 +532,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6818</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015034</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰信优势领航混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4586,7 +6747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
